--- a/src/main/webapp/template/excel/delivery_bookings.xlsx
+++ b/src/main/webapp/template/excel/delivery_bookings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>地接业务明细单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,13 +65,17 @@
   </si>
   <si>
     <t>计调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,13 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -130,74 +137,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,14 +149,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="8EDB98"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -496,92 +435,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="34.875" customWidth="1"/>
-    <col min="8" max="8" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
